--- a/ProjectLaravel/tailieu.xlsx
+++ b/ProjectLaravel/tailieu.xlsx
@@ -8,25 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bai-tap\ProjectLaravel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7134B45-71E9-416E-8ECA-3B2F4A5DA829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2602FD8-0B1B-43BB-B3DC-1845F62914C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{7AAE7466-426B-4D75-981B-E0A1C33A8874}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{7AAE7466-426B-4D75-981B-E0A1C33A8874}"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="1" r:id="rId1"/>
     <sheet name="user" sheetId="2" r:id="rId2"/>
+    <sheet name="sql" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="128">
   <si>
     <t>Khi người dùng không nhập dữ liệu: sẽ có thông báo lỗi</t>
   </si>
@@ -397,15 +407,9 @@
     <t>Xuất hiện message thông báo số lượng sản phẩm sau khi tìm kiếm</t>
   </si>
   <si>
-    <t>Cho phép người dùng xem được danh sách sản phẩm mới, và sản phẩm bán chạy( Đang phát triển)</t>
-  </si>
-  <si>
     <t>2.1, Chức năng của màn hình</t>
   </si>
   <si>
-    <t>Cho phép người dùng có thể đăng nhập, đăng xuất, đổi mật khẩu, tạo giỏ hàng, đặt mua hàng</t>
-  </si>
-  <si>
     <t>2.2 Các button trong màn hình</t>
   </si>
   <si>
@@ -1032,13 +1036,421 @@
       </rPr>
       <t>: đơn hàng đã hủy</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.3,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Màn hình quản lý users</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.3.1,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Chức năng: xem danh sách user, cấp quyền admin cho user, khóa,xóa tài khoản user</t>
+    </r>
+  </si>
+  <si>
+    <t>button Hammer: cấp quyền admin cho user</t>
+  </si>
+  <si>
+    <t>button Lock/unlock: khóa, mở khóa user</t>
+  </si>
+  <si>
+    <t>button Delete: xóa tài khoản</t>
+  </si>
+  <si>
+    <t>Cần có quyền admin mới truy cập được các màn hình admin</t>
+  </si>
+  <si>
+    <t>Khi cấp quyền admin cho user</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.3.2,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Các message có thể xuất hiện</t>
+    </r>
+  </si>
+  <si>
+    <t>Khi khóa user</t>
+  </si>
+  <si>
+    <t>Khi mở khóa user</t>
+  </si>
+  <si>
+    <t>Khi user bị khóa mà lại cấp quyền cho user này</t>
+  </si>
+  <si>
+    <t>Tài khoản có quyền Admin sẽ không thể bị khóa</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1.4, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Màn hình thông tin:</t>
+    </r>
+  </si>
+  <si>
+    <t>Cho phép quản lý thông tin liên hệ của website</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xem được danh sách sản phẩm mới, và sản phẩm bán chạy</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng có thể đăng nhập, đăng xuất, đổi mật khẩu, tạo giỏ hàng, đặt mua hàng, xem lich sử mua hàng</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Button </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lịch sử mua hàng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : xem lịch sử mua hàng của tài khoản</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, button </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Liên hệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:  xem bản đồ và địa chỉ cửa hàng</t>
+    </r>
+  </si>
+  <si>
+    <t>DB::table('products')-&gt;join('type_products', 'products.id_type', '=', 'type_products.id')-&gt;select('products.*', 'type_products.name as tp_name')-&gt;get();</t>
+  </si>
+  <si>
+    <t>1, Lấy tất cả danh sách sản phẩm:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2, Lấy tất cả kiểu sản phẩm: </t>
+  </si>
+  <si>
+    <t>DB::table('type_products')-&gt;get();</t>
+  </si>
+  <si>
+    <t>3, Lấy danh sách silde</t>
+  </si>
+  <si>
+    <t>Slides::all();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4, Lấy danh sách sản phẩm mới </t>
+  </si>
+  <si>
+    <t>Products::orderByRaw('created_at DESC')-&gt;limit(4)-&gt;get();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5, Lấy danh sách sản phẩm bán chạy </t>
+  </si>
+  <si>
+    <t>DB::table('products')</t>
+  </si>
+  <si>
+    <t>            -&gt;join('order_details', 'products.id', '=', 'order_details.product_id')</t>
+  </si>
+  <si>
+    <t>            -&gt;join('orders', 'order_details.order_id', '=', 'orders.id')</t>
+  </si>
+  <si>
+    <t>            -&gt;join('order_statuses', 'orders.order_status_id', '=', 'order_statuses.id')</t>
+  </si>
+  <si>
+    <t>            -&gt;where('orders.order_status_id', 2)</t>
+  </si>
+  <si>
+    <t>            -&gt;groupBy('products.name')</t>
+  </si>
+  <si>
+    <t>            -&gt;orderByRaw('count(products.name) DESC')</t>
+  </si>
+  <si>
+    <t>            -&gt;orderByRaw('products.name')</t>
+  </si>
+  <si>
+    <t>            -&gt;limit(8)</t>
+  </si>
+  <si>
+    <t>            -&gt;get('products.*');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6, Lấy danh sách sản phẩm tìm kiếm </t>
+  </si>
+  <si>
+    <t>            -&gt;where('products.name', 'like', '%' . $request-&gt;key . '%')</t>
+  </si>
+  <si>
+    <t>            -&gt;orWhere('products.unit_price', $request-&gt;key)</t>
+  </si>
+  <si>
+    <t>            -&gt;orWhere('products.promotion_price',  $request-&gt;key)</t>
+  </si>
+  <si>
+    <t>            -&gt;latest()</t>
+  </si>
+  <si>
+    <t>            -&gt;paginate(8);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7, Lấy danh sách sản phẩm theo danh mục </t>
+  </si>
+  <si>
+    <t>Products::where('id_type', $product-&gt;id_type)-&gt;get();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8, Lấy danh sách sản phẩm liên quan </t>
+  </si>
+  <si>
+    <t>Products::where('id_type', $product-&gt;id_type)-&gt;paginate(3);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9, Xóa hết thông báo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10, Lấy danh sách đơn hàng mới </t>
+  </si>
+  <si>
+    <t>Notification::truncate();</t>
+  </si>
+  <si>
+    <t>DB::table('orders')</t>
+  </si>
+  <si>
+    <t>            -&gt;where('orders.order_status_id', 1)</t>
+  </si>
+  <si>
+    <t>            -&gt;select('orders.*', 'order_statuses.id AS osi', 'order_statuses.status AS status')</t>
+  </si>
+  <si>
+    <t>            -&gt;paginate(5);</t>
+  </si>
+  <si>
+    <t>11, Xem chi tiết đơn hàng</t>
+  </si>
+  <si>
+    <t>DB::table('order_details')</t>
+  </si>
+  <si>
+    <t>            -&gt;join('products', 'order_details.product_id', '=', 'products.id')</t>
+  </si>
+  <si>
+    <t>            -&gt;where('order_details.order_id', $order_id)</t>
+  </si>
+  <si>
+    <t>12, Tìm kiếm đơn hàng</t>
+  </si>
+  <si>
+    <t>            })</t>
+  </si>
+  <si>
+    <t> DB::table('orders')</t>
+  </si>
+  <si>
+    <t>            -&gt;where('orders.order_status_id', '=', 1)</t>
+  </si>
+  <si>
+    <t>            -&gt;where(function ($query) use ($request) {</t>
+  </si>
+  <si>
+    <t>                $query-&gt;where('email', 'like', '%' . $request-&gt;key . '%');</t>
+  </si>
+  <si>
+    <t>                $query-&gt;orWhere('phone', 'like', '%' . $request-&gt;key . '%');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13, Xử lý đơn hàng đã gửi </t>
+  </si>
+  <si>
+    <t>DB::table('orders')-&gt;where('id', $id)-&gt;update(['order_status_id' =&gt; 2]);</t>
+  </si>
+  <si>
+    <t>14, Xem lịch sử đơn hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15, Xử lý đơn hàng hủy </t>
+  </si>
+  <si>
+    <t>DB::table('orders')-&gt;where('id', $id)-&gt;update(['order_status_id' =&gt; 3]);</t>
+  </si>
+  <si>
+    <t>16, Danh sách đơn hàng hủy</t>
+  </si>
+  <si>
+    <t>            -&gt;where('orders.order_status_id', 3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17. Tìm kiếm đơn hàng hủy </t>
+  </si>
+  <si>
+    <t>            -&gt;where('orders.order_status_id', '=', 3)</t>
+  </si>
+  <si>
+    <t>18. Tìm kiếm lịch sử</t>
+  </si>
+  <si>
+    <t>            -&gt;where('orders.order_status_id', '=', 2)</t>
+  </si>
+  <si>
+    <t>19. Danh sách user</t>
+  </si>
+  <si>
+    <t>DB::table('users')-&gt;paginate(5);</t>
+  </si>
+  <si>
+    <t>20, Xử lý xóa user</t>
+  </si>
+  <si>
+    <t> User::destroy($id);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21, Xử lý trao quyền admin </t>
+  </si>
+  <si>
+    <t> DB::table('users')-&gt;where('id', $id)-&gt;update(['is_admin' =&gt; 1]);</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1049,6 +1461,43 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1075,9 +1524,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1101,13 +1558,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>418483</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>91441</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1145,13 +1602,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>62363</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1189,13 +1646,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>91989</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>441113</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1233,13 +1690,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>387959</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>468415</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>30481</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1277,13 +1734,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>373381</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>129541</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>567989</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>83821</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1321,13 +1778,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>45719</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1365,13 +1822,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>175261</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>416842</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>175261</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1409,13 +1866,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>40973</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>10377</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>541095</xdr:colOff>
-      <xdr:row>210</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>99061</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1453,13 +1910,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>214</xdr:row>
+      <xdr:row>215</xdr:row>
       <xdr:rowOff>22922</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>231</xdr:row>
+      <xdr:row>232</xdr:row>
       <xdr:rowOff>142300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1497,13 +1954,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1638300</xdr:colOff>
-      <xdr:row>235</xdr:row>
+      <xdr:row>236</xdr:row>
       <xdr:rowOff>128155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>18785</xdr:colOff>
-      <xdr:row>250</xdr:row>
+      <xdr:row>251</xdr:row>
       <xdr:rowOff>16652</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1537,25 +1994,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>170300</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6269049" cy="4241417"/>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>6577</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
+        <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F729F410-8A13-41E4-A393-3A68A3634DE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ED41940-A9CB-2273-A752-6FE376DD807D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1564,15 +2021,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5676900" y="274320"/>
-          <a:ext cx="6269049" cy="4241417"/>
+          <a:off x="5074920" y="46621820"/>
+          <a:ext cx="9037320" cy="6054197"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1580,7 +2037,276 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3235412</xdr:colOff>
+      <xdr:row>294</xdr:row>
+      <xdr:rowOff>7619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>478369</xdr:colOff>
+      <xdr:row>312</xdr:row>
+      <xdr:rowOff>67874</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB2F024F-7A8A-235C-7683-CC6FA70D5918}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3235412" y="53774339"/>
+          <a:ext cx="8040497" cy="3352095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3101340</xdr:colOff>
+      <xdr:row>314</xdr:row>
+      <xdr:rowOff>60961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>198909</xdr:colOff>
+      <xdr:row>336</xdr:row>
+      <xdr:rowOff>68581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{454FAF1D-9762-EAC9-5D06-7D83A50D687D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3101340" y="57485281"/>
+          <a:ext cx="7895109" cy="4030980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>339</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>122895</xdr:colOff>
+      <xdr:row>358</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE394D01-35C9-4A33-2F59-8A5E3F4E19A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4023360" y="61996320"/>
+          <a:ext cx="6897075" cy="3520440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>360</xdr:row>
+      <xdr:rowOff>106681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>545908</xdr:colOff>
+      <xdr:row>381</xdr:row>
+      <xdr:rowOff>68581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{386BBA5B-4E1B-6E01-11AC-5F5B8EC47509}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="65943481"/>
+          <a:ext cx="6619048" cy="3802380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>383</xdr:row>
+      <xdr:rowOff>22861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>574222</xdr:colOff>
+      <xdr:row>405</xdr:row>
+      <xdr:rowOff>106681</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7551EB8-A770-810C-662B-04004051817C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3985260" y="70065901"/>
+          <a:ext cx="7386502" cy="4107180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1988820</xdr:colOff>
+      <xdr:row>411</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>578785</xdr:colOff>
+      <xdr:row>444</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DBA1F70-E46A-07B9-D16F-114E1AE25255}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1988820" y="75171301"/>
+          <a:ext cx="9997105" cy="6141720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -1603,7 +2329,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1642,7 +2368,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1681,7 +2407,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1720,7 +2446,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1759,7 +2485,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1798,7 +2524,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1837,7 +2563,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1876,7 +2602,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1915,7 +2641,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1954,7 +2680,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1971,6 +2697,138 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A22655E-DDA8-DEF0-77C9-E51A53FD8D66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1920240" y="815340"/>
+          <a:ext cx="9791700" cy="4305300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333052</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>41929</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1641C66F-02D1-9714-0ADA-82A125A26CD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1552252" y="40469820"/>
+          <a:ext cx="11291277" cy="4869180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>166819</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE25B9C1-3548-8A25-9728-4F7724CBD214}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="556260" y="45910500"/>
+          <a:ext cx="12412159" cy="4709160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2271,10 +3129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B577DE3-9213-4D22-A216-9F2CF55313C2}">
-  <dimension ref="A1:A235"/>
+  <dimension ref="A1:A410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="E252" sqref="E252"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B410" sqref="B410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2282,149 +3140,222 @@
     <col min="1" max="1" width="50.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>31</v>
+    <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169" s="1" t="s">
-        <v>43</v>
+      <c r="A169" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>40</v>
+      <c r="A170" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261" s="1"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2436,111 +3367,1171 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4C6115-248E-427A-95A4-96F1FEBA47F7}">
-  <dimension ref="A1:A218"/>
+  <dimension ref="A1:A250"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection sqref="A1:R219"/>
+    <sheetView topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="H281" sqref="H281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E672DE6-EBF4-4E50-8053-28064B37CF8D}">
+  <dimension ref="A1:V89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P82" sqref="P82"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D19" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D20" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D21" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D22" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D29" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D30" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D31" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D32" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D33" s="4"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D34" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D36" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D37" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D38" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D41" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D42" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D43" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D44" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D45" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D46" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D47" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D48" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D49" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>113</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D55" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D56" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D57" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D58" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>116</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D63" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D64" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D65" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D66" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>118</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D69" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D70" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D71" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D72" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D73" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D74" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D75" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D76" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>120</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D79" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D80" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D81" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D82" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D83" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D84" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D85" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>122</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>124</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>126</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ProjectLaravel/tailieu.xlsx
+++ b/ProjectLaravel/tailieu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bai-tap\ProjectLaravel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2602FD8-0B1B-43BB-B3DC-1845F62914C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FC7C1E-8814-4651-B481-4CFEBCAD77FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{7AAE7466-426B-4D75-981B-E0A1C33A8874}"/>
   </bookViews>
@@ -1524,7 +1524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1534,7 +1534,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2832,6 +2831,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>176168</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>373407</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>37137</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A0F0D28-FDFA-3F14-6C36-1135BC97B80B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="967740" y="16635368"/>
+          <a:ext cx="11864367" cy="6078889"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3490,8 +3538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E672DE6-EBF4-4E50-8053-28064B37CF8D}">
   <dimension ref="A1:V89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P82" sqref="P82"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="P90" sqref="P90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3532,7 +3580,6 @@
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -4533,5 +4580,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ProjectLaravel/tailieu.xlsx
+++ b/ProjectLaravel/tailieu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bai-tap\ProjectLaravel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FC7C1E-8814-4651-B481-4CFEBCAD77FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA42F4B7-6928-4D9C-8EA8-4DDFEA1AF5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{7AAE7466-426B-4D75-981B-E0A1C33A8874}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{7AAE7466-426B-4D75-981B-E0A1C33A8874}"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="129">
   <si>
     <t>Khi người dùng không nhập dữ liệu: sẽ có thông báo lỗi</t>
   </si>
@@ -1444,6 +1444,9 @@
   </si>
   <si>
     <t> DB::table('users')-&gt;where('id', $id)-&gt;update(['is_admin' =&gt; 1]);</t>
+  </si>
+  <si>
+    <t>Khi đặt hàng sẽ có mail gửi đến xác nhận đặt hàng</t>
   </si>
 </sst>
 </file>
@@ -3179,7 +3182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B577DE3-9213-4D22-A216-9F2CF55313C2}">
   <dimension ref="A1:A410"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A262" workbookViewId="0">
       <selection activeCell="B410" sqref="B410"/>
     </sheetView>
   </sheetViews>
@@ -3417,8 +3420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4C6115-248E-427A-95A4-96F1FEBA47F7}">
   <dimension ref="A1:A250"/>
   <sheetViews>
-    <sheetView topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="H281" sqref="H281"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R62" sqref="R62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3476,6 +3479,11 @@
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
@@ -3538,7 +3546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E672DE6-EBF4-4E50-8053-28064B37CF8D}">
   <dimension ref="A1:V89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="P90" sqref="P90"/>
     </sheetView>
   </sheetViews>
